--- a/xlsx/country_comparison/field_injustice_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_manual_positive.xlsx
@@ -74,21 +74,21 @@
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
-    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
@@ -98,37 +98,37 @@
     <t xml:space="preserve">Health; healthcare system</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Religion; sin; God</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
+    <t xml:space="preserve">Animal welfare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Social division; fake news; (social) media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal welfare</t>
   </si>
   <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.215595360430587</v>
+        <v>0.19236768375089</v>
       </c>
       <c r="C2" t="n">
         <v>0.282316577282496</v>
@@ -527,7 +527,7 @@
         <v>0.383453666744011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.236407771696895</v>
+        <v>0.236407771696894</v>
       </c>
       <c r="I2" t="n">
         <v>0.206939418312827</v>
@@ -536,13 +536,13 @@
         <v>0.303326918959862</v>
       </c>
       <c r="K2" t="n">
-        <v>0.22978589690276</v>
+        <v>0.227487304233017</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0861910423128659</v>
+        <v>0.0856456092931657</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0871124273343834</v>
+        <v>0.0884586311834892</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.126856821027236</v>
+        <v>0.133635740798305</v>
       </c>
       <c r="C3" t="n">
         <v>0.0890479007661918</v>
@@ -577,13 +577,13 @@
         <v>0.16318640463821</v>
       </c>
       <c r="K3" t="n">
-        <v>0.156859224403502</v>
+        <v>0.172998864991661</v>
       </c>
       <c r="L3" t="n">
-        <v>0.248957604503378</v>
+        <v>0.247382154266812</v>
       </c>
       <c r="M3" t="n">
-        <v>0.179080761545444</v>
+        <v>0.156550349782967</v>
       </c>
     </row>
     <row r="4">
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0933363058397765</v>
+        <v>0.102578307010954</v>
       </c>
       <c r="C4" t="n">
         <v>0.0773377094790956</v>
@@ -618,13 +618,13 @@
         <v>0.088756102880966</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0861815862565926</v>
+        <v>0.0851886804792831</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0709353162754152</v>
+        <v>0.0704864243404616</v>
       </c>
       <c r="M4" t="n">
-        <v>0.136100229015956</v>
+        <v>0.140158764931317</v>
       </c>
     </row>
     <row r="5">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0918173399951793</v>
+        <v>0.10077142673952</v>
       </c>
       <c r="C5" t="n">
         <v>0.0909217739594071</v>
@@ -659,13 +659,13 @@
         <v>0.0236075827114802</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0185754557054508</v>
+        <v>0.00807530051475825</v>
       </c>
       <c r="L5" t="n">
-        <v>0.123090322983122</v>
+        <v>0.122311384421075</v>
       </c>
       <c r="M5" t="n">
-        <v>0.119002728936338</v>
+        <v>0.147888659084085</v>
       </c>
     </row>
     <row r="6">
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0745383055219494</v>
+        <v>0.0809844902302964</v>
       </c>
       <c r="C6" t="n">
         <v>0.0926813790090268</v>
@@ -700,13 +700,13 @@
         <v>0.0838907043249316</v>
       </c>
       <c r="K6" t="n">
-        <v>0.132681074751612</v>
+        <v>0.162667161705802</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0028140370416176</v>
+        <v>0.00279622928944324</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0208106515506106</v>
+        <v>0.0412349194418417</v>
       </c>
     </row>
     <row r="7">
@@ -714,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0731829002079782</v>
+        <v>0.0778107147384053</v>
       </c>
       <c r="C7" t="n">
         <v>0.040741137134838</v>
@@ -741,13 +741,13 @@
         <v>0.0464722636556982</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0309917846611773</v>
+        <v>0.0376355535718029</v>
       </c>
       <c r="L7" t="n">
-        <v>0.156641556229117</v>
+        <v>0.155650299194373</v>
       </c>
       <c r="M7" t="n">
-        <v>0.144220673565823</v>
+        <v>0.128312721811606</v>
       </c>
     </row>
     <row r="8">
@@ -755,7 +755,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0721613302590462</v>
+        <v>0.0772084794989279</v>
       </c>
       <c r="C8" t="n">
         <v>0.0577970846444101</v>
@@ -782,13 +782,13 @@
         <v>0.0564210194306301</v>
       </c>
       <c r="K8" t="n">
-        <v>0.14670324917431</v>
+        <v>0.138208481612036</v>
       </c>
       <c r="L8" t="n">
-        <v>0.109350721253827</v>
+        <v>0.108658729458631</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0630136901650239</v>
+        <v>0.0706733871607049</v>
       </c>
     </row>
     <row r="9">
@@ -796,40 +796,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0512313827461954</v>
+        <v>0.0588820851024769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0804759547090383</v>
+        <v>0.0160714074497724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0260714357375153</v>
+        <v>0.00530540832827688</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0434526921674371</v>
+        <v>0.0168365028874186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0958471695539859</v>
+        <v>0.0163165264392469</v>
       </c>
       <c r="G9" t="n">
-        <v>0.267401508760546</v>
+        <v>0.0225919141367999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0877720100619234</v>
+        <v>0.00419658808051044</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0565561929612001</v>
+        <v>0.0335212709139703</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0575598789176026</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.00381898012035089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0524165590883853</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0114297466821625</v>
+        <v>0.133531878832619</v>
       </c>
     </row>
     <row r="10">
@@ -837,40 +837,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0502649822858857</v>
+        <v>0.0422861010752758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0160714074497724</v>
+        <v>0.0804759547090383</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00530540832827688</v>
+        <v>0.0260714357375153</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0168365028874186</v>
+        <v>0.0434526921674371</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0163165264392469</v>
+        <v>0.0958471695539859</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0225919141367999</v>
+        <v>0.267401508760546</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00419658808051044</v>
+        <v>0.0877720100619234</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0335212709139703</v>
+        <v>0.0565561929612001</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0575598789176026</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00282534534678226</v>
+        <v>0.00590418772075127</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.052084857308958</v>
       </c>
       <c r="M10" t="n">
-        <v>0.150418565003156</v>
+        <v>0.0145628693783694</v>
       </c>
     </row>
     <row r="11">
@@ -878,10 +878,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0428180109411956</v>
+        <v>0.0367415980578385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0579959462835318</v>
+        <v>0.0579959462835317</v>
       </c>
       <c r="D11" t="n">
         <v>0.0403816928932045</v>
@@ -905,13 +905,13 @@
         <v>0.0522923532728749</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0202282729280697</v>
+        <v>0.00794083675641711</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0318442081126718</v>
+        <v>0.0316426920139592</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0245088455590663</v>
+        <v>0.025738806336169</v>
       </c>
     </row>
     <row r="12">
@@ -919,40 +919,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0402576807901506</v>
+        <v>0.0360998000385648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0568949623661473</v>
+        <v>0.0363515776693038</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0369135007976769</v>
+        <v>0.0197735760905716</v>
       </c>
       <c r="E12" t="n">
-        <v>0.051300016316713</v>
+        <v>0.0562379329868137</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0848714475626862</v>
+        <v>0.0516591534222662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0621969735252677</v>
+        <v>0.0359641618233651</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0598010987303198</v>
+        <v>0.0302894824018288</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0603591282104399</v>
+        <v>0.0199414636570819</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0106890997717295</v>
+        <v>0.038670170189497</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00440690398207152</v>
+        <v>0.0620260476675147</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0318140301114135</v>
+        <v>0.026232043036305</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0215753711281283</v>
+        <v>0.0259949528988933</v>
       </c>
     </row>
     <row r="13">
@@ -960,40 +960,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.037739701430642</v>
+        <v>0.0343887415948199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0363515776693038</v>
+        <v>0.0568949623661473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0197735760905716</v>
+        <v>0.0369135007976769</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0562379329868137</v>
+        <v>0.051300016316713</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0516591534222662</v>
+        <v>0.0848714475626862</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0359641618233651</v>
+        <v>0.0621969735252677</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0302894824018288</v>
+        <v>0.0598010987303198</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0199414636570819</v>
+        <v>0.0603591282104399</v>
       </c>
       <c r="J13" t="n">
-        <v>0.038670170189497</v>
+        <v>0.0106890997717295</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0820017720000931</v>
+        <v>0.00393147725582878</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0263991014829</v>
+        <v>0.0316127049847314</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0207255129837322</v>
+        <v>0.0224965325327197</v>
       </c>
     </row>
     <row r="14">
@@ -1001,7 +1001,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0344937215759184</v>
+        <v>0.0317483123349506</v>
       </c>
       <c r="C14" t="n">
         <v>0.0388272430816311</v>
@@ -1028,13 +1028,13 @@
         <v>0.0239802270478731</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0284773975446278</v>
+        <v>0.0293887579775286</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0160449756313954</v>
+        <v>0.0159434400277548</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0300203132585935</v>
+        <v>0.0263153742488455</v>
       </c>
     </row>
     <row r="15">
@@ -1042,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0307328875075645</v>
+        <v>0.0300649011930188</v>
       </c>
       <c r="C15" t="n">
         <v>0.0412409386082088</v>
@@ -1069,13 +1069,13 @@
         <v>0.0272149018891973</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0224324400733671</v>
+        <v>0.02523533904616</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00526143884091278</v>
+        <v>0.00522814347287964</v>
       </c>
       <c r="M15" t="n">
-        <v>0.015206837902655</v>
+        <v>0.0219323200190768</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0303647911642593</v>
+        <v>0.0299894492970724</v>
       </c>
       <c r="C16" t="n">
         <v>0.0336121648346338</v>
@@ -1110,13 +1110,13 @@
         <v>0.0537299361473355</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0191816241801535</v>
+        <v>0.0253704337105087</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00862664850661308</v>
+        <v>0.00857205746305922</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0309910277723391</v>
+        <v>0.0297567792858858</v>
       </c>
     </row>
     <row r="17">
@@ -1124,40 +1124,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>0.023781306860927</v>
+        <v>0.0213548173473084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0332562932295435</v>
+        <v>0.0221608513261262</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0158798522283001</v>
+        <v>0.0245978081599351</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0920378035570918</v>
+        <v>0.0185951545336284</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0181928011936998</v>
+        <v>0.0381664681440777</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0206291737355884</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0191957535441396</v>
+        <v>0.0245982549272271</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0244948764092316</v>
+        <v>0.00425409721915943</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0242591106332449</v>
+        <v>0.0529743555840719</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0266447852169589</v>
+        <v>0.0159351196370293</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.0315548338250212</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00559890456602721</v>
+        <v>0.0218281081544583</v>
       </c>
     </row>
     <row r="18">
@@ -1165,40 +1165,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0198219418911803</v>
+        <v>0.0200998257159509</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0221608513261262</v>
+        <v>0.0332562932295435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0245978081599351</v>
+        <v>0.0158798522283001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0185951545336284</v>
+        <v>0.0920378035570918</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0381664681440777</v>
+        <v>0.0181928011936998</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0206291737355884</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0245982549272271</v>
+        <v>0.0191957535441396</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00425409721915943</v>
+        <v>0.0244948764092316</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0529743555840719</v>
+        <v>0.0242591106332449</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0231569412070382</v>
+        <v>0.0254811549622626</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0317557903999275</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0134719521279155</v>
+        <v>0.0051858162950071</v>
       </c>
     </row>
     <row r="19">
@@ -1206,7 +1206,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0170285758078083</v>
+        <v>0.018282826961487</v>
       </c>
       <c r="C19" t="n">
         <v>0.019774032354662</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00334228750419908</v>
+        <v>0.00817635536141889</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00566462265557537</v>
+        <v>0.00562877586503214</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0179011757545438</v>
+        <v>0.0218946351805943</v>
       </c>
     </row>
     <row r="20">
@@ -1247,16 +1247,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0150959955344875</v>
+        <v>0.0147771160379557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00285307835769309</v>
+        <v>0.0132486670782493</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.00474190001962247</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.0459479462175533</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0132764960100609</v>
+        <v>0.0139333136821896</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00501998068386332</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00699571921197308</v>
+        <v>0.022725986605419</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00977829120082433</v>
+        <v>0.03033682862488</v>
       </c>
       <c r="L20" t="n">
-        <v>0.141582937148677</v>
+        <v>0.00595460261408726</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0223178569944437</v>
+        <v>0.0108024787666727</v>
       </c>
     </row>
     <row r="21">
@@ -1288,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0143614912397939</v>
+        <v>0.0144685873009112</v>
       </c>
       <c r="C21" t="n">
         <v>0.018401395091402</v>
@@ -1315,13 +1315,13 @@
         <v>0.0152871981847866</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00683269542362357</v>
+        <v>0.00384004327617022</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0110773637926578</v>
+        <v>0.01577451647812</v>
       </c>
     </row>
     <row r="22">
@@ -1329,16 +1329,16 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0134243988748198</v>
+        <v>0.0136640404726229</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0132486670782493</v>
+        <v>0.00459903523797051</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00474190001962247</v>
+        <v>0.00916729861618895</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0459479462175533</v>
+        <v>0.00367721298971527</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1347,22 +1347,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0139333136821896</v>
+        <v>0.00569148267979682</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.00511612848226143</v>
       </c>
       <c r="J22" t="n">
-        <v>0.022725986605419</v>
+        <v>0.01797694753656</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0316848889511788</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00599252442831359</v>
+        <v>0.0886303759695702</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0071298618999244</v>
+        <v>0.0227984170815001</v>
       </c>
     </row>
     <row r="23">
@@ -1370,16 +1370,16 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0125041778691783</v>
+        <v>0.0128080284955886</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00459903523797051</v>
+        <v>0.00285307835769309</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00916729861618895</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00367721298971527</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1388,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00569148267979682</v>
+        <v>0.0132764960100609</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00511612848226143</v>
+        <v>0.00501998068386332</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01797694753656</v>
+        <v>0.00699571921197308</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.00741637284652129</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0828263296185613</v>
+        <v>0.140686973869028</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0240999995224996</v>
+        <v>0.0149743542577991</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0117479620930109</v>
+        <v>0.0105931916707348</v>
       </c>
       <c r="C24" t="n">
         <v>0.0129857952970099</v>
@@ -1438,13 +1438,13 @@
         <v>0.010199149510776</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0202995282708237</v>
+        <v>0.0192234887339769</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0365403839044949</v>
+        <v>0.0363091495279377</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00219572358654219</v>
+        <v>0.0022117161202331</v>
       </c>
     </row>
     <row r="25">
@@ -1452,7 +1452,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0103333470568537</v>
+        <v>0.0095015168524833</v>
       </c>
       <c r="C25" t="n">
         <v>0.0166096552763567</v>
@@ -1479,13 +1479,13 @@
         <v>0.00730112604126029</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00394897035335624</v>
+        <v>0.00396051292537313</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00847773800654483</v>
+        <v>0.00842408929645786</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.004083577239528</v>
       </c>
     </row>
     <row r="26">
@@ -1493,40 +1493,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00891894188225829</v>
+        <v>0.00868422935208661</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00699420515905663</v>
+        <v>0.00951275262822817</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0105674176867679</v>
+        <v>0.00454636476167684</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00936391233812897</v>
+        <v>0.0120231172080217</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.00623980186032868</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00722413478066855</v>
+        <v>0.0211949009637864</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00608967796615894</v>
+        <v>0.00812631018797692</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00825782674779768</v>
+        <v>0.0101115592974845</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00436378382151721</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0166480671939236</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0152445258789222</v>
+        <v>0.0120964271062891</v>
       </c>
     </row>
     <row r="27">
@@ -1534,40 +1534,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00837219999062731</v>
+        <v>0.00759750463368799</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00951275262822817</v>
+        <v>0.00699420515905662</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00454636476167684</v>
+        <v>0.0105674176867679</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0120231172080217</v>
+        <v>0.00936391233812897</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00623980186032868</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0211949009637863</v>
+        <v>0.00722413478066855</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00812631018797692</v>
+        <v>0.00608967796615894</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0101115592974845</v>
+        <v>0.00825782674779768</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.00218338186351675</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.0165427151141936</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00956781529329607</v>
+        <v>0.00972099268762891</v>
       </c>
     </row>
     <row r="28">
@@ -1575,7 +1575,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00240759371905676</v>
+        <v>0.00177008263594898</v>
       </c>
       <c r="C28" t="n">
         <v>0.00118355295580632</v>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00597853862148768</v>
+        <v>0.00363653512551942</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00249093093667313</v>
+        <v>0.00247516786030003</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00402744208874201</v>
+        <v>0.00158405697903242</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_injustice_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_manual_positive.xlsx
@@ -767,7 +767,7 @@
         <v>0.0690590097697488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0260131728302672</v>
+        <v>0.0260131728302673</v>
       </c>
       <c r="G8" t="n">
         <v>0.0234579763178417</v>
@@ -1192,7 +1192,7 @@
         <v>0.0242591106332449</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0254811549622626</v>
+        <v>0.0254811549622627</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_injustice_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_manual_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -65,70 +68,70 @@
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing; don't know; empty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
-  </si>
-  <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health; healthcare system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Religion; sin; God</t>
   </si>
   <si>
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">Animal welfare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Environment; climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social division; fake news; (social) media</t>
   </si>
   <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
@@ -503,801 +506,861 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19236768375089</v>
+        <v>0.193472257250862</v>
       </c>
       <c r="C2" t="n">
         <v>0.282316577282496</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27117813712412</v>
+        <v>0.27524334415304</v>
       </c>
       <c r="E2" t="n">
-        <v>0.322954485688344</v>
+        <v>0.323745772883001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.293628268957383</v>
+        <v>0.300449695223493</v>
       </c>
       <c r="G2" t="n">
-        <v>0.383453666744011</v>
+        <v>0.406264992796033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.236407771696894</v>
+        <v>0.232171768702401</v>
       </c>
       <c r="I2" t="n">
-        <v>0.206939418312827</v>
+        <v>0.192889480159261</v>
       </c>
       <c r="J2" t="n">
-        <v>0.303326918959862</v>
+        <v>0.308995844537579</v>
       </c>
       <c r="K2" t="n">
-        <v>0.227487304233017</v>
+        <v>0.22769063341799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0856456092931657</v>
+        <v>0.216927947821716</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0884586311834892</v>
+        <v>0.0960013313308505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0894285571832467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.133635740798305</v>
+        <v>0.14582793629703</v>
       </c>
       <c r="C3" t="n">
         <v>0.0890479007661918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.102055639705758</v>
+        <v>0.0984841149161455</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0779682779533454</v>
+        <v>0.0808708507897831</v>
       </c>
       <c r="F3" t="n">
-        <v>0.10048976908898</v>
+        <v>0.101207912899267</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0587080231889963</v>
+        <v>0.0478431567974536</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0717739194923803</v>
+        <v>0.0685344490540774</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0991611059142009</v>
+        <v>0.109278088078189</v>
       </c>
       <c r="J3" t="n">
-        <v>0.16318640463821</v>
+        <v>0.151189657362699</v>
       </c>
       <c r="K3" t="n">
-        <v>0.172998864991661</v>
+        <v>0.174257655895114</v>
       </c>
       <c r="L3" t="n">
-        <v>0.247382154266812</v>
+        <v>0.22379326537517</v>
       </c>
       <c r="M3" t="n">
-        <v>0.156550349782967</v>
+        <v>0.264192918258298</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.155246458695388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.102578307010954</v>
+        <v>0.0899371540335654</v>
       </c>
       <c r="C4" t="n">
         <v>0.0773377094790956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.095581847866128</v>
+        <v>0.09542214688724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0451409220761125</v>
+        <v>0.0537615488976341</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0999603780281695</v>
+        <v>0.0999926952502069</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0330986597603391</v>
+        <v>0.0205604411197075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0670025714060047</v>
+        <v>0.0608175134946506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.109395230482528</v>
+        <v>0.114611702377796</v>
       </c>
       <c r="J4" t="n">
-        <v>0.088756102880966</v>
+        <v>0.0994389548602621</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0851886804792831</v>
+        <v>0.087051522412888</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0704864243404616</v>
+        <v>0.00959385394321554</v>
       </c>
       <c r="M4" t="n">
-        <v>0.140158764931317</v>
+        <v>0.0711590603468348</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.14076775147538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.10077142673952</v>
+        <v>0.0886989140478539</v>
       </c>
       <c r="C5" t="n">
         <v>0.0909217739594071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.122075851030386</v>
+        <v>0.113656618290979</v>
       </c>
       <c r="E5" t="n">
-        <v>0.028856971362441</v>
+        <v>0.0284364680019117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12127509261734</v>
+        <v>0.115817396452212</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0320558301136618</v>
+        <v>0.0313182580191037</v>
       </c>
       <c r="H5" t="n">
-        <v>0.107120910921685</v>
+        <v>0.107957081423471</v>
       </c>
       <c r="I5" t="n">
-        <v>0.138578219691578</v>
+        <v>0.146257504857142</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0236075827114802</v>
+        <v>0.0251227225921293</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00807530051475825</v>
+        <v>0.00871763161446181</v>
       </c>
       <c r="L5" t="n">
-        <v>0.122311384421075</v>
+        <v>0.00970641727283424</v>
       </c>
       <c r="M5" t="n">
-        <v>0.147888659084085</v>
+        <v>0.118101156252153</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.147493845655912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0809844902302964</v>
+        <v>0.0792303913704522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0926813790090268</v>
+        <v>0.0577970846444101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.119038062759994</v>
+        <v>0.0692715173183048</v>
       </c>
       <c r="E6" t="n">
-        <v>0.157173240348688</v>
+        <v>0.0740530415796818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0407970885536009</v>
+        <v>0.0299285211433876</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0412631922522353</v>
+        <v>0.0185317867116436</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0312170035462357</v>
+        <v>0.0724055745338951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.111521052475604</v>
+        <v>0.0636806492490597</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0838907043249316</v>
+        <v>0.0542492956289564</v>
       </c>
       <c r="K6" t="n">
-        <v>0.162667161705802</v>
+        <v>0.137962099567453</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00279622928944324</v>
+        <v>0.0957129496565348</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0412349194418417</v>
+        <v>0.110902834301378</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0706014410079451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0778107147384053</v>
+        <v>0.075227639723675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.040741137134838</v>
+        <v>0.0926813790090268</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0408398276230822</v>
+        <v>0.122233563522976</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0262754348235434</v>
+        <v>0.157162542794581</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0584986811860711</v>
+        <v>0.0393199658382381</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0116196629584552</v>
+        <v>0.0438561085647774</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0417908597063074</v>
+        <v>0.0272877905562686</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0576572691590005</v>
+        <v>0.117346540035196</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0464722636556982</v>
+        <v>0.0785679679391327</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0376355535718029</v>
+        <v>0.161667977410109</v>
       </c>
       <c r="L7" t="n">
-        <v>0.155650299194373</v>
+        <v>0.0322820429635823</v>
       </c>
       <c r="M7" t="n">
-        <v>0.128312721811606</v>
+        <v>0.0031131569094518</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0416334298206324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0772084794989279</v>
+        <v>0.0710357754922263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0577970846444101</v>
+        <v>0.040741137134838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0696977736191468</v>
+        <v>0.0421585907852359</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0690590097697488</v>
+        <v>0.0262588424258129</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0260131728302673</v>
+        <v>0.0572550822559998</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0234579763178417</v>
+        <v>0.0072664407900174</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0715900085738805</v>
+        <v>0.0393048596508374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0701938948349766</v>
+        <v>0.053187068476423</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0564210194306301</v>
+        <v>0.0353008284924114</v>
       </c>
       <c r="K8" t="n">
-        <v>0.138208481612036</v>
+        <v>0.0383228822182178</v>
       </c>
       <c r="L8" t="n">
-        <v>0.108658729458631</v>
+        <v>0.0281770452360455</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0706733871607049</v>
+        <v>0.164453115037297</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.127881645351456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0588820851024769</v>
+        <v>0.0512360878714467</v>
       </c>
       <c r="C9" t="n">
         <v>0.0160714074497724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00530540832827688</v>
+        <v>0.00431485925509307</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0168365028874186</v>
+        <v>0.016641649524601</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0163165264392469</v>
+        <v>0.0177515678053881</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0225919141367999</v>
+        <v>0.0223840174246049</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00419658808051044</v>
+        <v>0.00528653334412038</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0335212709139703</v>
+        <v>0.0291934378201612</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00381898012035089</v>
+        <v>0.00363309988422034</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.133531878832619</v>
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.131196970540381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0422861010752758</v>
+        <v>0.0421471366023423</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0804759547090383</v>
+        <v>0.0363515776693038</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0260714357375153</v>
+        <v>0.0203223407736879</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0434526921674371</v>
+        <v>0.0543053033132343</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0958471695539859</v>
+        <v>0.0483634186376201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.267401508760546</v>
+        <v>0.0289455780781558</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0877720100619234</v>
+        <v>0.0324491375764373</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0565561929612001</v>
+        <v>0.0164201948650902</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0575598789176026</v>
+        <v>0.0463367342309564</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00590418772075127</v>
+        <v>0.0592360185449487</v>
       </c>
       <c r="L10" t="n">
-        <v>0.052084857308958</v>
+        <v>0.0762957932077603</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0145628693783694</v>
+        <v>0.0257522397863998</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0259308790503683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0367415980578385</v>
+        <v>0.0414557547121278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0579959462835317</v>
+        <v>0.0804759547090383</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0403816928932045</v>
+        <v>0.0282973112565643</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0359239453371638</v>
+        <v>0.0421103535441335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.10785101775187</v>
+        <v>0.09506718976824</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0787625371633836</v>
+        <v>0.285191815144101</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0657800567302825</v>
+        <v>0.0955732809995769</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0409289172297372</v>
+        <v>0.0568621838487572</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0522923532728749</v>
+        <v>0.0538921024347238</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00794083675641711</v>
+        <v>0.00578200607874687</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0316426920139592</v>
+        <v>0.0324737660966918</v>
       </c>
       <c r="M11" t="n">
-        <v>0.025738806336169</v>
+        <v>0.0495732162452297</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0144358856540047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0360998000385648</v>
+        <v>0.0385904168068854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0363515776693038</v>
+        <v>0.0336121648346338</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0197735760905716</v>
+        <v>0.0760600586633183</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0562379329868137</v>
+        <v>0.0168816279619483</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0516591534222662</v>
+        <v>0.0253130973098263</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0359641618233651</v>
+        <v>0.0474768036118028</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0302894824018288</v>
+        <v>0.0196723355017422</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0199414636570819</v>
+        <v>0.0270338752674809</v>
       </c>
       <c r="J12" t="n">
-        <v>0.038670170189497</v>
+        <v>0.0481450350960188</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0620260476675147</v>
+        <v>0.0258853379722289</v>
       </c>
       <c r="L12" t="n">
-        <v>0.026232043036305</v>
+        <v>0.0891595907612721</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0259949528988933</v>
+        <v>0.0156022513614068</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.029751991491195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0343887415948199</v>
+        <v>0.0322848183775295</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0568949623661473</v>
+        <v>0.0579959462835317</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0369135007976769</v>
+        <v>0.0416843467760591</v>
       </c>
       <c r="E13" t="n">
-        <v>0.051300016316713</v>
+        <v>0.0406127119670183</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0848714475626862</v>
+        <v>0.105382300735262</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0621969735252677</v>
+        <v>0.0773500178580965</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0598010987303198</v>
+        <v>0.0769728179353987</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0603591282104399</v>
+        <v>0.0377744206921161</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0106890997717295</v>
+        <v>0.052426932979296</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00393147725582878</v>
+        <v>0.00909862895714765</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0316127049847314</v>
+        <v>0.00196991877156995</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0224965325327197</v>
+        <v>0.0284250899888325</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0264323674895027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0317483123349506</v>
+        <v>0.0302834898118261</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0388272430816311</v>
+        <v>0.0568949623661473</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0264178557380647</v>
+        <v>0.0373611698609789</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0660879852305047</v>
+        <v>0.0531109270864647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00539757015822466</v>
+        <v>0.0826989148097879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0377009157262638</v>
+        <v>0.0649837036567338</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0284039640404207</v>
+        <v>0.0621655250913714</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0592270756167986</v>
+        <v>0.0589574199435237</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0239802270478731</v>
+        <v>0.0109058766927465</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0293887579775286</v>
+        <v>0.00417011838601384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0159434400277548</v>
+        <v>0.00287788890384716</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0263153742488455</v>
+        <v>0.0273901137641157</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0223906036162852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0300649011930188</v>
+        <v>0.0290455513252752</v>
       </c>
       <c r="C15" t="n">
         <v>0.0412409386082088</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0201113933838029</v>
+        <v>0.0191887988281741</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0413367637545971</v>
+        <v>0.0362249923747145</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0212815043637138</v>
+        <v>0.0211942900713401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0177300013109073</v>
+        <v>0.0160654712125148</v>
       </c>
       <c r="H15" t="n">
-        <v>0.102933500881906</v>
+        <v>0.102211613824726</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0498241639154318</v>
+        <v>0.0413614491036709</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0272149018891973</v>
+        <v>0.0337021171010667</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02523533904616</v>
+        <v>0.0250716247237296</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00522814347287964</v>
+        <v>0.0220756258949303</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0219323200190768</v>
+        <v>0.00350685568408197</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0210154844442111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0299894492970724</v>
+        <v>0.0279980685357864</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0336121648346338</v>
+        <v>0.0388272430816311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07645782553968</v>
+        <v>0.025175679478932</v>
       </c>
       <c r="E16" t="n">
-        <v>0.019006161637547</v>
+        <v>0.0629047034357747</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0250666888159108</v>
+        <v>0.00690578259775439</v>
       </c>
       <c r="G16" t="n">
-        <v>0.039797312221602</v>
+        <v>0.036005597790544</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0194524537444731</v>
+        <v>0.0301003740322274</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0191422635835874</v>
+        <v>0.0585439650053104</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0537299361473355</v>
+        <v>0.0228511047536127</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0253704337105087</v>
+        <v>0.0280529232917821</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00857205746305922</v>
+        <v>0.00196991877156995</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0297567792858858</v>
+        <v>0.0163553753046354</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0266647705124745</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0213548173473084</v>
+        <v>0.0252342543039105</v>
       </c>
       <c r="C17" t="n">
         <v>0.0221608513261262</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0245978081599351</v>
+        <v>0.0315837299942148</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0185951545336284</v>
+        <v>0.0192257272494567</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0381664681440777</v>
+        <v>0.0430127276145093</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0206291737355884</v>
+        <v>0.0144420251498928</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0245982549272271</v>
+        <v>0.0211421822764729</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00425409721915943</v>
+        <v>0.00455277131064944</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0529743555840719</v>
+        <v>0.0489624789101239</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0159351196370293</v>
+        <v>0.0161999645610869</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0315548338250212</v>
+        <v>0.0495794167809346</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0218281081544583</v>
+        <v>0.028324999226693</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0217926562512705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0200998257159509</v>
+        <v>0.0238223684253124</v>
       </c>
       <c r="C18" t="n">
         <v>0.0332562932295435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0158798522283001</v>
+        <v>0.0164692554815014</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0920378035570918</v>
+        <v>0.0821539029291472</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0181928011936998</v>
+        <v>0.0175221143466421</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0191957535441396</v>
+        <v>0.017342334077922</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0244948764092316</v>
+        <v>0.0266624847658038</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0242591106332449</v>
+        <v>0.0343219665690107</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0254811549622627</v>
+        <v>0.0252499505834543</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.0457434385505361</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0051858162950071</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.00553504056344855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.018282826961487</v>
+        <v>0.0225179147688453</v>
       </c>
       <c r="C19" t="n">
-        <v>0.019774032354662</v>
+        <v>0.00699420515905663</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0256604954053232</v>
+        <v>0.010302161952138</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0557558750372995</v>
+        <v>0.0107407544742393</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00748207765528707</v>
+        <v>0.00931663434728762</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00925479432767773</v>
+        <v>0.00525577048369364</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0056055130292808</v>
+        <v>0.0086891337322128</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00817635536141889</v>
+        <v>0.00238900255754223</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00562877586503214</v>
+        <v>0.125627677699356</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0218946351805943</v>
+        <v>0.019916524055471</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.00977677100784971</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0147771160379557</v>
+        <v>0.0169091966064532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0132486670782493</v>
+        <v>0.019774032354662</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00474190001962247</v>
+        <v>0.0279185434750346</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0459479462175533</v>
+        <v>0.0508294222437082</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.00669975530523878</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0139333136821896</v>
+        <v>0.00958998188950427</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.00586607246075807</v>
       </c>
       <c r="J20" t="n">
-        <v>0.022725986605419</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03033682862488</v>
+        <v>0.00858414227087222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00595460261408726</v>
+        <v>0.00718673408199849</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0108024787666727</v>
+        <v>0.0035192899025971</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0219578691394332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0144685873009112</v>
+        <v>0.0161696903046644</v>
       </c>
       <c r="C21" t="n">
-        <v>0.018401395091402</v>
+        <v>0.00459903523797051</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0211204198487316</v>
+        <v>0.00932013919238342</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0168880351194493</v>
+        <v>0.00279283011576853</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1306,39 +1369,42 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0505200918384061</v>
+        <v>0.00452715329389802</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0208239810779078</v>
+        <v>0.00336410782745439</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0152871981847866</v>
+        <v>0.0256386297689513</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00384004327617022</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0277593712362353</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01577451647812</v>
+        <v>0.0763593738524665</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0226074487053361</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0136640404726229</v>
+        <v>0.0130234662803424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00459903523797051</v>
+        <v>0.018401395091402</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00916729861618895</v>
+        <v>0.021584429408551</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00367721298971527</v>
+        <v>0.0163772845278464</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1347,39 +1413,42 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00569148267979682</v>
+        <v>0.0445961561693774</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00511612848226143</v>
+        <v>0.0234188362580714</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01797694753656</v>
+        <v>0.0169749940170554</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.00370927432407847</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0886303759695702</v>
+        <v>0.00213424185990759</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0227984170815001</v>
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0158264030692174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0128080284955886</v>
+        <v>0.0128183444604828</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00285307835769309</v>
+        <v>0.0132486670782493</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.00440558175277021</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.049540972255253</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1388,133 +1457,142 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0132764960100609</v>
+        <v>0.0123894643001477</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00501998068386332</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00699571921197308</v>
+        <v>0.0190626404890174</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00741637284652129</v>
+        <v>0.0302424444567907</v>
       </c>
       <c r="L23" t="n">
-        <v>0.140686973869028</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0149743542577991</v>
+        <v>0.00477328571515123</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0109070508362325</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0105931916707348</v>
+        <v>0.0111332128917486</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0129857952970099</v>
+        <v>0.00285307835769309</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0158158019403132</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0193425717797016</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0105239173623547</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0165853243951368</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0117989536337919</v>
+        <v>0.0130851825402997</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0037240403049357</v>
+        <v>0.0054682240157976</v>
       </c>
       <c r="J24" t="n">
-        <v>0.010199149510776</v>
+        <v>0.00658088851726978</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0192234887339769</v>
+        <v>0.00695596741547587</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0363091495279377</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0022117161202331</v>
+        <v>0.147500786556504</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0149528588308804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0095015168524833</v>
+        <v>0.0102681827275837</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0166096552763567</v>
+        <v>0.0129857952970099</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00588354694309327</v>
+        <v>0.0170708431420918</v>
       </c>
       <c r="E25" t="n">
-        <v>0.026392089328939</v>
+        <v>0.0184193815948076</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0169267648315402</v>
+        <v>0.0103210233362284</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0226273082466658</v>
+        <v>0.0121048767870377</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0129629781810611</v>
+        <v>0.00997060433341852</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0160528444417205</v>
+        <v>0.00390223591510034</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00730112604126029</v>
+        <v>0.00892262722574435</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00396051292537313</v>
+        <v>0.0196755956872265</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00842408929645786</v>
+        <v>0.00922702835765224</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004083577239528</v>
+        <v>0.0276670279858202</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.00209434550422277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00868422935208661</v>
+        <v>0.00851124469024167</v>
       </c>
       <c r="C26" t="n">
         <v>0.00951275262822817</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00454636476167684</v>
+        <v>0.00536679498490362</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0120231172080217</v>
+        <v>0.00982082006127667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00623980186032868</v>
+        <v>0.00586143048887332</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0211949009637864</v>
+        <v>0.0171059279989278</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00812631018797692</v>
+        <v>0.0063429009916464</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0101115592974845</v>
+        <v>0.0135279264479434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1523,59 +1601,65 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.00583407521610505</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0120964271062891</v>
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0111761699891518</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00759750463368799</v>
+        <v>0.00827001692510275</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00699420515905662</v>
+        <v>0.0166096552763567</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0105674176867679</v>
+        <v>0.00592025762854623</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00936391233812897</v>
+        <v>0.0242473303441789</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.0153593354750039</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00722413478066855</v>
+        <v>0.0209988581269097</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00608967796615894</v>
+        <v>0.0127230228083536</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00825782674779768</v>
+        <v>0.0182548636512168</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.00498806128606289</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00218338186351675</v>
+        <v>0.00425033809678458</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0165427151141936</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00972099268762891</v>
+        <v>0.00544407341776788</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00402527813959491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00177008263594898</v>
+        <v>0.001568709402587</v>
       </c>
       <c r="C28" t="n">
         <v>0.00118355295580632</v>
@@ -1587,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00740110442571908</v>
+        <v>0.00576744259692168</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1602,13 +1686,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00363653512551942</v>
+        <v>0.00339217449718474</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00247516786030003</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00158405697903242</v>
+        <v>0.00198611787954323</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00211133353640489</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_injustice_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_manual_positive.xlsx
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193472257250862</v>
+        <v>0.193454865562524</v>
       </c>
       <c r="C2" t="n">
         <v>0.282316577282496</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.14582793629703</v>
+        <v>0.145960668951207</v>
       </c>
       <c r="C3" t="n">
         <v>0.0890479007661918</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0899371540335654</v>
+        <v>0.0898707050904478</v>
       </c>
       <c r="C4" t="n">
         <v>0.0773377094790956</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0886989140478539</v>
+        <v>0.0886338109404274</v>
       </c>
       <c r="C5" t="n">
         <v>0.0909217739594071</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0792303913704522</v>
+        <v>0.0792342003046881</v>
       </c>
       <c r="C6" t="n">
         <v>0.0577970846444101</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.075227639723675</v>
+        <v>0.0751924576334753</v>
       </c>
       <c r="C7" t="n">
         <v>0.0926813790090268</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0710357754922263</v>
+        <v>0.0710023275193729</v>
       </c>
       <c r="C8" t="n">
         <v>0.040741137134838</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0512360878714467</v>
+        <v>0.0511923299727571</v>
       </c>
       <c r="C9" t="n">
         <v>0.0160714074497724</v>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0421471366023423</v>
+        <v>0.0422089613757566</v>
       </c>
       <c r="C10" t="n">
         <v>0.0363515776693038</v>
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0414557547121278</v>
+        <v>0.0414734038575696</v>
       </c>
       <c r="C11" t="n">
         <v>0.0804759547090383</v>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0385904168068854</v>
+        <v>0.0386646189834095</v>
       </c>
       <c r="C12" t="n">
         <v>0.0336121648346338</v>
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0322848183775295</v>
+        <v>0.0322662985183111</v>
       </c>
       <c r="C13" t="n">
         <v>0.0579959462835317</v>
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0302834898118261</v>
+        <v>0.0302598421792383</v>
       </c>
       <c r="C14" t="n">
         <v>0.0568949623661473</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0290455513252752</v>
+        <v>0.0290163964984331</v>
       </c>
       <c r="C15" t="n">
         <v>0.0412409386082088</v>
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0279980685357864</v>
+        <v>0.0279832097516632</v>
       </c>
       <c r="C16" t="n">
         <v>0.0388272430816311</v>
@@ -1175,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0252342543039105</v>
+        <v>0.0253033639273702</v>
       </c>
       <c r="C17" t="n">
         <v>0.0221608513261262</v>
@@ -1219,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0238223684253124</v>
+        <v>0.0238082515010032</v>
       </c>
       <c r="C18" t="n">
         <v>0.0332562932295435</v>
@@ -1263,10 +1263,10 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0225179147688453</v>
+        <v>0.0225295887814616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00699420515905663</v>
+        <v>0.00699420515905662</v>
       </c>
       <c r="D19" t="n">
         <v>0.010302161952138</v>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0169091966064532</v>
+        <v>0.0169067202350939</v>
       </c>
       <c r="C20" t="n">
         <v>0.019774032354662</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0161696903046644</v>
+        <v>0.016166286909872</v>
       </c>
       <c r="C21" t="n">
         <v>0.00459903523797051</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0130234662803424</v>
+        <v>0.013023391155836</v>
       </c>
       <c r="C22" t="n">
         <v>0.018401395091402</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0128183444604828</v>
+        <v>0.012807397023987</v>
       </c>
       <c r="C23" t="n">
         <v>0.0132486670782493</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0111332128917486</v>
+        <v>0.0111237046325889</v>
       </c>
       <c r="C24" t="n">
         <v>0.00285307835769309</v>
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0102681827275837</v>
+        <v>0.0102725454460004</v>
       </c>
       <c r="C25" t="n">
         <v>0.0129857952970099</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00851124469024167</v>
+        <v>0.00851126937431142</v>
       </c>
       <c r="C26" t="n">
         <v>0.00951275262822817</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00827001692510275</v>
+        <v>0.00826295396269083</v>
       </c>
       <c r="C27" t="n">
         <v>0.0166096552763567</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.001568709402587</v>
+        <v>0.0015673696549606</v>
       </c>
       <c r="C28" t="n">
         <v>0.00118355295580632</v>
